--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\LT-window\BookManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783F26DC-37B2-4768-AAEC-AE6E91598088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F15BAC-9ACD-47C1-A7E3-C0E395CE2D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="2940" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Category" sheetId="1" r:id="rId1"/>
@@ -132,13 +132,13 @@
     <t>J.R.R. Tolkien</t>
   </si>
   <si>
-    <t>/Resources/BookCovers/gian.jpg</t>
-  </si>
-  <si>
     <t>Description…</t>
   </si>
   <si>
     <t>Truyện bua</t>
+  </si>
+  <si>
+    <t>/ImportBookCovers/gian.jpg</t>
   </si>
 </sst>
 </file>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +521,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB4D7C0-751A-4C74-BE14-435AC1A2DE66}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,13 +604,13 @@
         <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>255000</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -639,13 +639,13 @@
         <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H3">
         <v>255000</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -674,13 +674,13 @@
         <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>255000</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -709,13 +709,13 @@
         <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H5">
         <v>255000</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -744,13 +744,13 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H6">
         <v>255000</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -779,13 +779,13 @@
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7">
         <v>255000</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7">
         <v>5</v>
